--- a/大学信息技术/期末考试-复习/复习题/第3题/CExcel.xlsx
+++ b/大学信息技术/期末考试-复习/复习题/第3题/CExcel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d319\Desktop\EXCEL改返-修改\I卷EXCEL\19-I卷EXCEL素材\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\demo\大学信息技术\期末考试-复习\复习题\第3题\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B90302-2D86-4374-B17C-9E2723589EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9792" yWindow="3660" windowWidth="14376" windowHeight="13008"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,8 +26,6 @@
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="40">
   <si>
     <t>订单日期</t>
   </si>
@@ -142,16 +141,32 @@
   <si>
     <t>大额订单数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东北地区 汇总</t>
+  </si>
+  <si>
+    <t>华北地区 汇总</t>
+  </si>
+  <si>
+    <t>西南地区 汇总</t>
+  </si>
+  <si>
+    <t>直辖市 汇总</t>
+  </si>
+  <si>
+    <t>总计</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +183,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -197,7 +220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -221,11 +244,254 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="m/d/yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -236,6 +502,1094 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t>各品牌手机销售额</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>销售额</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-804A-4F98-9FD3-98BC17BC3A78}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-804A-4F98-9FD3-98BC17BC3A78}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-804A-4F98-9FD3-98BC17BC3A78}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-804A-4F98-9FD3-98BC17BC3A78}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>三星</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>iphone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中兴</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>小米</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>31992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24440</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9737</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4212-44E8-B703-224DFB66F279}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0465028-CB81-4DB4-9C6B-EBDEB57503FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BBBEB8CA-23BD-4F8F-A46E-4C58B5F30CD6}" name="表2" displayName="表2" ref="A1:J20" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J20" xr:uid="{E77C8354-D6E2-425A-85BD-BE1762B70E0B}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{A50E878C-18BD-47F1-9C1B-8CDDC454CF78}" name="订单日期" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{70A4C9BF-4F98-4952-9992-3B3A6D4B6707}" name="年" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{AD3D349A-8AAF-468E-AC4E-466B9D2A25E8}" name="月" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{6CB1F0FA-F624-4180-86BE-4624B14EDD29}" name="地区" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{5F408E97-0034-4720-ACC2-9C0CBB6BFFA2}" name="省份" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{35E371AA-A6C8-45F9-BA76-49A785E859FB}" name="品牌" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{E5F37EF8-7D70-4411-A50B-FDD06CE0EBB8}" name="数量" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{C9023306-AF62-4577-B5B2-760BD38E9DF6}" name="单价" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{4FFB4775-4779-4970-AC5A-9E10AA6D50C0}" name="销售额" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{857499DC-A412-4CB9-A899-A503B75887F6}" name="利润率" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,28 +1888,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="8" style="3" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.21875" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.77734375" style="3"/>
+    <col min="3" max="3" width="5.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="3" customWidth="1"/>
+    <col min="8" max="10" width="10.25" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -589,8 +1943,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
         <v>43972</v>
       </c>
       <c r="B2" s="3">
@@ -620,9 +1974,13 @@
       <c r="J2" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="L2" s="3">
+        <f>COUNTIF(I2:I20,"&gt;50000")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
         <v>43745</v>
       </c>
       <c r="B3" s="3">
@@ -653,8 +2011,8 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
         <v>43774</v>
       </c>
       <c r="B4" s="3">
@@ -685,8 +2043,8 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
         <v>43550</v>
       </c>
       <c r="B5" s="3">
@@ -717,8 +2075,8 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
         <v>43500</v>
       </c>
       <c r="B6" s="3">
@@ -749,8 +2107,8 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
         <v>43860</v>
       </c>
       <c r="B7" s="3">
@@ -781,8 +2139,8 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
         <v>43923</v>
       </c>
       <c r="B8" s="3">
@@ -813,8 +2171,8 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
         <v>43723</v>
       </c>
       <c r="B9" s="3">
@@ -845,8 +2203,8 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
         <v>43837</v>
       </c>
       <c r="B10" s="3">
@@ -877,8 +2235,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
         <v>43601</v>
       </c>
       <c r="B11" s="3">
@@ -909,8 +2267,8 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
         <v>44014</v>
       </c>
       <c r="B12" s="3">
@@ -941,8 +2299,8 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
         <v>44223</v>
       </c>
       <c r="B13" s="3">
@@ -973,8 +2331,8 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
         <v>43949</v>
       </c>
       <c r="B14" s="3">
@@ -1005,8 +2363,8 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
         <v>43616</v>
       </c>
       <c r="B15" s="3">
@@ -1037,8 +2395,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
         <v>44160</v>
       </c>
       <c r="B16" s="3">
@@ -1069,8 +2427,8 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
         <v>44158</v>
       </c>
       <c r="B17" s="3">
@@ -1101,8 +2459,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
         <v>43733</v>
       </c>
       <c r="B18" s="3">
@@ -1133,8 +2491,8 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
         <v>44256</v>
       </c>
       <c r="B19" s="3">
@@ -1165,8 +2523,8 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
         <v>43996</v>
       </c>
       <c r="B20" s="3">
@@ -1200,30 +2558,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="J20" sqref="A1:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" style="5"/>
+    <col min="6" max="6" width="8.75" style="5"/>
     <col min="7" max="10" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.77734375" style="5"/>
+    <col min="11" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1255,103 +2617,88 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>43972</v>
+        <v>43774</v>
       </c>
       <c r="B2" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C2" s="3">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3">
+        <v>9999</v>
+      </c>
+      <c r="I2" s="3">
+        <v>59994</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>44160</v>
+      </c>
+      <c r="B3" s="3">
         <v>2020</v>
       </c>
-      <c r="C2" s="3">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3">
-        <v>5298</v>
-      </c>
-      <c r="I2" s="3">
-        <v>21192</v>
-      </c>
-      <c r="J2" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>43745</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2019</v>
-      </c>
       <c r="C3" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3">
-        <v>5399</v>
+        <v>2999</v>
       </c>
       <c r="I3" s="3">
-        <v>26995</v>
+        <v>26991</v>
       </c>
       <c r="J3" s="3">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>43774</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2019</v>
-      </c>
-      <c r="C4" s="3">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3">
-        <v>6</v>
-      </c>
-      <c r="H4" s="3">
-        <v>9999</v>
-      </c>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="3">
-        <v>59994</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <f>SUBTOTAL(9,I2:I3)</f>
+        <v>86985</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43550</v>
       </c>
@@ -1383,73 +2730,73 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>43500</v>
+        <v>43923</v>
       </c>
       <c r="B6" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C6" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G6" s="3">
         <v>6</v>
       </c>
       <c r="H6" s="3">
-        <v>5999</v>
+        <v>1999</v>
       </c>
       <c r="I6" s="3">
-        <v>35994</v>
+        <v>11994</v>
       </c>
       <c r="J6" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>43601</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>8999</v>
+      </c>
+      <c r="I7" s="3">
+        <v>44995</v>
+      </c>
+      <c r="J7" s="3">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>43860</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="3">
-        <v>10</v>
-      </c>
-      <c r="H7" s="3">
-        <v>3298</v>
-      </c>
-      <c r="I7" s="3">
-        <v>32980</v>
-      </c>
-      <c r="J7" s="3">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>43923</v>
+        <v>43949</v>
       </c>
       <c r="B8" s="3">
         <v>2020</v>
@@ -1464,54 +2811,54 @@
         <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G8" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8" s="3">
-        <v>1999</v>
+        <v>1399</v>
       </c>
       <c r="I8" s="3">
-        <v>11994</v>
+        <v>9793</v>
       </c>
       <c r="J8" s="3">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>43723</v>
+        <v>43500</v>
       </c>
       <c r="B9" s="3">
         <v>2019</v>
       </c>
       <c r="C9" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G9" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H9" s="3">
-        <v>6999</v>
+        <v>5999</v>
       </c>
       <c r="I9" s="3">
-        <v>27996</v>
+        <v>35994</v>
       </c>
       <c r="J9" s="3">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43837</v>
       </c>
@@ -1543,135 +2890,120 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>43601</v>
+        <v>43733</v>
       </c>
       <c r="B11" s="3">
         <v>2019</v>
       </c>
       <c r="C11" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G11" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11" s="3">
-        <v>8999</v>
+        <v>4899</v>
       </c>
       <c r="I11" s="3">
-        <v>44995</v>
+        <v>19596</v>
       </c>
       <c r="J11" s="3">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>44014</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2020</v>
-      </c>
-      <c r="C12" s="3">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="3">
-        <v>5</v>
-      </c>
-      <c r="H12" s="3">
-        <v>4499</v>
-      </c>
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3">
-        <v>22495</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <f>SUBTOTAL(9,I5:I11)</f>
+        <v>228660</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44223</v>
+        <v>44256</v>
       </c>
       <c r="B13" s="3">
         <v>2021</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H13" s="3">
-        <v>3099</v>
+        <v>2499</v>
       </c>
       <c r="I13" s="3">
-        <v>15495</v>
+        <v>19992</v>
       </c>
       <c r="J13" s="3">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>43949</v>
+        <v>43996</v>
       </c>
       <c r="B14" s="3">
         <v>2020</v>
       </c>
       <c r="C14" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G14" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I14" s="3">
-        <v>9793</v>
+        <v>11184</v>
       </c>
       <c r="J14" s="3">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43616</v>
       </c>
@@ -1703,39 +3035,39 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>44160</v>
+        <v>43860</v>
       </c>
       <c r="B16" s="3">
         <v>2020</v>
       </c>
       <c r="C16" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G16" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H16" s="3">
-        <v>2999</v>
+        <v>3298</v>
       </c>
       <c r="I16" s="3">
-        <v>26991</v>
+        <v>32980</v>
       </c>
       <c r="J16" s="3">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44158</v>
       </c>
@@ -1767,125 +3099,244 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>43733</v>
-      </c>
-      <c r="B18" s="3">
+    <row r="18" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3">
+        <f>SUBTOTAL(9,I13:I17)</f>
+        <v>140224</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>43972</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3">
+        <v>5298</v>
+      </c>
+      <c r="I19" s="3">
+        <v>21192</v>
+      </c>
+      <c r="J19" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>44223</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="3">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3099</v>
+      </c>
+      <c r="I20" s="3">
+        <v>15495</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>43745</v>
+      </c>
+      <c r="B21" s="3">
         <v>2019</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C21" s="3">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>5399</v>
+      </c>
+      <c r="I21" s="3">
+        <v>26995</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>43723</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C22" s="3">
         <v>9</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6999</v>
+      </c>
+      <c r="I22" s="3">
+        <v>27996</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>44014</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C23" s="3">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="3">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4899</v>
-      </c>
-      <c r="I18" s="3">
-        <v>19596</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>44256</v>
-      </c>
-      <c r="B19" s="3">
-        <v>2021</v>
-      </c>
-      <c r="C19" s="3">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="3">
-        <v>8</v>
-      </c>
-      <c r="H19" s="3">
-        <v>2499</v>
-      </c>
-      <c r="I19" s="3">
-        <v>19992</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>43996</v>
-      </c>
-      <c r="B20" s="3">
-        <v>2020</v>
-      </c>
-      <c r="C20" s="3">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="3">
-        <v>8</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1398</v>
-      </c>
-      <c r="I20" s="3">
-        <v>11184</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0.09</v>
-      </c>
+      <c r="G23" s="3">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>4499</v>
+      </c>
+      <c r="I23" s="3">
+        <v>22495</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3">
+        <f>SUBTOTAL(9,I19:I23)</f>
+        <v>114173</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3">
+        <f>SUBTOTAL(9,I2:I23)</f>
+        <v>570042</v>
+      </c>
+      <c r="J25" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J23">
+    <sortCondition ref="D2:D23"/>
+    <sortCondition ref="E2:E23"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="5" customWidth="1"/>
-    <col min="3" max="6" width="11.33203125" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="5"/>
+    <col min="1" max="1" width="12.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="5" customWidth="1"/>
+    <col min="3" max="6" width="11.375" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -1905,7 +3356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
@@ -1925,7 +3376,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -1945,7 +3396,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -1965,7 +3416,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
@@ -1988,5 +3439,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>